--- a/biology/Zoologie/Dermacentor/Dermacentor.xlsx
+++ b/biology/Zoologie/Dermacentor/Dermacentor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermacentor est un genre de tiques de la famille des Ixodidae. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la forme adulte des deux sexes, le genre Dermacentor se distingue des autres genres de tiques ixodes par : une épine bifide sur le premier segment (coxa) de la patte 1 ; l'émail sur le bouclier dorsal (scutum) ; la présence des yeux ; un rostre court à base triangulaire[1],[2].
-Dermacentor est présent en Eurasie, au Maghreb, et en Amérique du nord et centrale. Le genre comptait 26 espèces en 1985[1], et 34 en 2017[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la forme adulte des deux sexes, le genre Dermacentor se distingue des autres genres de tiques ixodes par : une épine bifide sur le premier segment (coxa) de la patte 1 ; l'émail sur le bouclier dorsal (scutum) ; la présence des yeux ; un rostre court à base triangulaire,.
+Dermacentor est présent en Eurasie, au Maghreb, et en Amérique du nord et centrale. Le genre comptait 26 espèces en 1985, et 34 en 2017.
 </t>
         </is>
       </c>
@@ -543,21 +557,11 @@
           <t>Importance médicale et vétérinaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dermacentor parasite habituellement les ongulés, avec localisation préférentielle sur la tête, et les petits mammifères (rongeurs, écureuils...).
-Transmission de rickettsioses
-Chez l'homme, il est le vecteur de la fièvre pourprée des montagnes Rocheuses dont l'agent est Rickettsia rickettsi. Les diverses espèces en cause sont Dermacentor andersoni, D. variabilis, en Amérique du nord ; D. nitens en Amérique centrale.
-En Eurasie, il est le vecteur du typhus à tiques de Sibérie dont l'agent est Rickettsia sibirica. Les espèces en cause sont D. marginatus, D. reticulatus, D. nuttali, D. silvarum[3], ainsi que du TIBOLA (Tick Borne LymphAdenopathy) dont l'agent est Rickettsia slovaca[4].
-De façon cosmopolite, des espèces du genre Dermacentor  sont vecteurs des Babesia spp. et de la fièvre Q dont l'agent est Coxiella burnetii, autrefois classé comme rickettsie[5].
-Transmission d'arboviroses
-Dermacentor est un vecteur secondaire (par rapport à d'autres vecteurs principaux) des encéphalites à tiques dont l'agent est le virus de la méningo-encéphalite à tiques. Il s'agit de D. silvarum en Sibérie, de D. marginatus et D. reticulatus en Europe centrale.
-D. andersoni transmet le virus de la fièvre à tiques du Colorado.
-D. reticulatus peut transmettre celui de la fièvre hémorragique d'Omsk[6].
-Rôle toxique
-La salive de tiques ixodes, adultes femelles, peut avoir un pouvoir toxique variable selon les individus et leur état de nutrition. Cette toxicité est due à des protéines paralysantes ou à action cardiovasculaire[7].
-Dans le genre Dermacentor, il s'agit de D. andersoni responsable de troubles paralytiques chez les animaux domestiques (bovins, ovins, parfois chez des chiens et chats). Un nombre minimal de tiques femelles est nécessaire pour provoquer une paralysie (35 à 150 chez les bovins)[7].
-Problème vétérinaire important en Amérique du Nord, la paralysie ascendante à tiques reste rare chez les humains bien qu'ils soient beaucoup plus sensibles. D. andersoni et D. variabilis peuvent provoquer une paralysie ascendante d'évolution rapide, réversible en 24 heures si la tique est retirée à temps, mais parfois mortelle par arrêt respiratoire si ce n'est pas le cas[8],[9].
 </t>
         </is>
       </c>
@@ -583,13 +587,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Études</t>
+          <t>Importance médicale et vétérinaire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lors des enquêtes épidémiologiques, les tiques peuvent se récolter par diverses méthodes, dont celle de simuler la présence d'un hôte en dégageant du CO2 (à partir de carboglace ou d'une bouteille de gaz carbonique) [10]; on peut aussi utiliser associer un autre attractif comme le 2,6-dichlorophénol (phéromone sexuelle). 
-De tels dispositifs peuvent attirer les larves de D. albipictus à plus de 3 mètres[11]. L'attractif conduit à un piège qui retient les tiques (masse d'eau, ruban adhésif, etc.)[10].
+          <t>Transmission de rickettsioses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'homme, il est le vecteur de la fièvre pourprée des montagnes Rocheuses dont l'agent est Rickettsia rickettsi. Les diverses espèces en cause sont Dermacentor andersoni, D. variabilis, en Amérique du nord ; D. nitens en Amérique centrale.
+En Eurasie, il est le vecteur du typhus à tiques de Sibérie dont l'agent est Rickettsia sibirica. Les espèces en cause sont D. marginatus, D. reticulatus, D. nuttali, D. silvarum, ainsi que du TIBOLA (Tick Borne LymphAdenopathy) dont l'agent est Rickettsia slovaca.
+De façon cosmopolite, des espèces du genre Dermacentor  sont vecteurs des Babesia spp. et de la fièvre Q dont l'agent est Coxiella burnetii, autrefois classé comme rickettsie.
 </t>
         </is>
       </c>
@@ -615,12 +626,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Importance médicale et vétérinaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Transmission d'arboviroses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermacentor est un vecteur secondaire (par rapport à d'autres vecteurs principaux) des encéphalites à tiques dont l'agent est le virus de la méningo-encéphalite à tiques. Il s'agit de D. silvarum en Sibérie, de D. marginatus et D. reticulatus en Europe centrale.
+D. andersoni transmet le virus de la fièvre à tiques du Colorado.
+D. reticulatus peut transmettre celui de la fièvre hémorragique d'Omsk.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dermacentor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dermacentor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Importance médicale et vétérinaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rôle toxique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La salive de tiques ixodes, adultes femelles, peut avoir un pouvoir toxique variable selon les individus et leur état de nutrition. Cette toxicité est due à des protéines paralysantes ou à action cardiovasculaire.
+Dans le genre Dermacentor, il s'agit de D. andersoni responsable de troubles paralytiques chez les animaux domestiques (bovins, ovins, parfois chez des chiens et chats). Un nombre minimal de tiques femelles est nécessaire pour provoquer une paralysie (35 à 150 chez les bovins).
+Problème vétérinaire important en Amérique du Nord, la paralysie ascendante à tiques reste rare chez les humains bien qu'ils soient beaucoup plus sensibles. D. andersoni et D. variabilis peuvent provoquer une paralysie ascendante d'évolution rapide, réversible en 24 heures si la tique est retirée à temps, mais parfois mortelle par arrêt respiratoire si ce n'est pas le cas,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dermacentor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dermacentor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des enquêtes épidémiologiques, les tiques peuvent se récolter par diverses méthodes, dont celle de simuler la présence d'un hôte en dégageant du CO2 (à partir de carboglace ou d'une bouteille de gaz carbonique) ; on peut aussi utiliser associer un autre attractif comme le 2,6-dichlorophénol (phéromone sexuelle). 
+De tels dispositifs peuvent attirer les larves de D. albipictus à plus de 3 mètres. L'attractif conduit à un piège qui retient les tiques (masse d'eau, ruban adhésif, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dermacentor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dermacentor</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Guglielmone &amp; al., 2010[12] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Guglielmone &amp; al., 2010 :
 Dermacentor abaensis Teng, 1963
 Dermacentor albipictus (Packard, 1869)
 Dermacentor andersoni Stiles, 1908
@@ -659,31 +784,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Dermacentor</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dermacentor</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>C. L. Koch, 1844 : Systematische Übersicht über die Ordnung der Zecken. Archiv Für Naturgeschichte, Berlin, vol. 10, p. 217–239 (texte intégral).</t>
         </is>
